--- a/TrackMe.xlsx
+++ b/TrackMe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593A5670-5EFB-4DF6-95CB-01241CE44653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91180E96-EDAC-4B1D-8FAE-D3BD679DF496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="302">
   <si>
     <t>Solution</t>
   </si>
@@ -798,9 +798,6 @@
     <t>https://leetcode.com/problems/number-of-people-aware-of-a-secret/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/maximum-sum-circular-subarray/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/min-stack/</t>
   </si>
   <si>
@@ -811,6 +808,129 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-nesting-depth-of-the-parentheses/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-outermost-parentheses/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/baseball-game/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/crawler-log-folder/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-twin-sum-of-a-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/basic-calculator-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-students-unable-to-eat-lunch/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-browser-history/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/continuous-subarrays/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray-min-product/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/removing-stars-from-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-swaps-to-make-the-string-balanced/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-stack-sequences/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-collisions-on-a-road/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-sum-of-four-digit-number-after-splitting-digits/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-a-string-in-balanced-strings/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distribute-money-to-maximum-children/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partitioning-into-minimum-number-of-deci-binary-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/task-scheduler/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/increasing-triplet-subsequence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-matrix-zeroes/</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M502"/>
+  <dimension ref="A1:M503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="G193" sqref="G193"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="K237" sqref="K237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5316,7 +5436,9 @@
       <c r="G185" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H185" s="2"/>
+      <c r="H185" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="8" t="s">
@@ -5360,7 +5482,9 @@
       <c r="G187" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H187" s="2"/>
+      <c r="H187" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="188" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="8" t="s">
@@ -5385,8 +5509,8 @@
       <c r="H188" s="2"/>
     </row>
     <row r="189" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="3" t="s">
-        <v>257</v>
+      <c r="A189" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
@@ -5404,11 +5528,13 @@
       <c r="G189" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H189" s="2"/>
+      <c r="H189" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="190" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
@@ -5430,7 +5556,7 @@
     </row>
     <row r="191" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
@@ -5452,7 +5578,7 @@
     </row>
     <row r="192" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
@@ -5474,7 +5600,7 @@
     </row>
     <row r="193" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
@@ -5495,393 +5621,883 @@
       <c r="H193" s="2"/>
     </row>
     <row r="194" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="2"/>
+      <c r="A194" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E194" s="6">
+        <v>45104</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="195" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="2"/>
+      <c r="A195" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="2"/>
+      <c r="C195" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E195" s="6">
+        <v>45104</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H195" s="2"/>
     </row>
     <row r="196" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="2"/>
+      <c r="A196" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="2"/>
+      <c r="C196" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E196" s="6">
+        <v>45105</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H196" s="2"/>
     </row>
     <row r="197" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="2"/>
+      <c r="A197" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="2"/>
+      <c r="C197" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E197" s="6">
+        <v>45105</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="2"/>
+      <c r="A198" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="2"/>
+      <c r="C198" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E198" s="6">
+        <v>45105</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H198" s="2"/>
     </row>
     <row r="199" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="2"/>
+      <c r="A199" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="2"/>
+      <c r="C199" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E199" s="6">
+        <v>45106</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H199" s="2"/>
     </row>
     <row r="200" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="2"/>
+      <c r="A200" s="8" t="s">
+        <v>267</v>
+      </c>
       <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="C200" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E200" s="6">
+        <v>45107</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="201" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="2"/>
+      <c r="A201" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
+      <c r="C201" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E201" s="6">
+        <v>45107</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="202" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="2"/>
+      <c r="A202" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="2"/>
+      <c r="C202" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E202" s="6">
+        <v>45108</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H202" s="2"/>
     </row>
     <row r="203" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="2"/>
+      <c r="A203" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
+      <c r="C203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E203" s="6">
+        <v>45109</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="204" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="2"/>
+      <c r="A204" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
+      <c r="C204" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E204" s="6">
+        <v>45110</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="205" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="2"/>
+      <c r="A205" s="8" t="s">
+        <v>272</v>
+      </c>
       <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="2"/>
+      <c r="C205" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E205" s="6">
+        <v>45111</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H205" s="2"/>
     </row>
     <row r="206" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="2"/>
+      <c r="A206" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="2"/>
+      <c r="C206" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E206" s="6">
+        <v>45111</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H206" s="2"/>
     </row>
     <row r="207" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="2"/>
+      <c r="A207" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="2"/>
+      <c r="C207" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E207" s="6">
+        <v>45112</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H207" s="2"/>
     </row>
     <row r="208" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="2"/>
+      <c r="A208" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
+      <c r="C208" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E208" s="6">
+        <v>45113</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="209" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="2"/>
+      <c r="A209" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
+      <c r="C209" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E209" s="6">
+        <v>45115</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="210" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="2"/>
+      <c r="A210" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="2"/>
+      <c r="C210" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E210" s="6">
+        <v>45119</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H210" s="2"/>
     </row>
     <row r="211" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="2"/>
+      <c r="A211" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="2"/>
+      <c r="C211" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E211" s="6">
+        <v>45120</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H211" s="2"/>
     </row>
     <row r="212" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="2"/>
+      <c r="A212" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="2"/>
+      <c r="C212" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E212" s="6">
+        <v>45120</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H212" s="2"/>
     </row>
     <row r="213" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="2"/>
+      <c r="A213" s="3" t="s">
+        <v>280</v>
+      </c>
       <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="2"/>
+      <c r="C213" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E213" s="6">
+        <v>45121</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H213" s="2"/>
     </row>
     <row r="214" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="2"/>
+      <c r="A214" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="2"/>
+      <c r="C214" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E214" s="6">
+        <v>45121</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H214" s="2"/>
     </row>
     <row r="215" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="2"/>
+      <c r="A215" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="2"/>
+      <c r="C215" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E215" s="6">
+        <v>45121</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="2"/>
+      <c r="A216" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="2"/>
+      <c r="C216" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E216" s="6">
+        <v>45122</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H216" s="2"/>
     </row>
     <row r="217" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="2"/>
+      <c r="A217" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
+      <c r="C217" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E217" s="6">
+        <v>45125</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="218" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="2"/>
+      <c r="A218" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
+      <c r="C218" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E218" s="6">
+        <v>45126</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="219" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="2"/>
+      <c r="A219" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
+      <c r="C219" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E219" s="6">
+        <v>45127</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="220" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="2"/>
+      <c r="A220" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
+      <c r="C220" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E220" s="6">
+        <v>45129</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="221" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="2"/>
+      <c r="A221" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="2"/>
+      <c r="C221" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E221" s="6">
+        <v>45131</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H221" s="2"/>
     </row>
     <row r="222" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="2"/>
+      <c r="A222" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="2"/>
+      <c r="C222" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E222" s="6">
+        <v>45132</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H222" s="2"/>
     </row>
     <row r="223" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="2"/>
+      <c r="A223" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="2"/>
+      <c r="C223" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E223" s="6">
+        <v>45133</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H223" s="2"/>
     </row>
     <row r="224" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="2"/>
+      <c r="A224" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="2"/>
+      <c r="C224" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E224" s="6">
+        <v>45134</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H224" s="2"/>
     </row>
     <row r="225" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="2"/>
+      <c r="A225" s="8" t="s">
+        <v>294</v>
+      </c>
       <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="2"/>
+      <c r="C225" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E225" s="6">
+        <v>45134</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H225" s="2"/>
     </row>
     <row r="226" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="2"/>
+      <c r="A226" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="2"/>
+      <c r="C226" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E226" s="6">
+        <v>45135</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H226" s="2"/>
     </row>
     <row r="227" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="2"/>
+      <c r="A227" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="2"/>
+      <c r="C227" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E227" s="6">
+        <v>45135</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H227" s="2"/>
     </row>
     <row r="228" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="2"/>
+      <c r="A228" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="2"/>
+      <c r="C228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E228" s="6">
+        <v>45136</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H228" s="2"/>
     </row>
     <row r="229" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="2"/>
+      <c r="A229" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="2"/>
+      <c r="C229" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E229" s="6">
+        <v>45136</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H229" s="2"/>
     </row>
     <row r="230" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="2"/>
+      <c r="A230" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="2"/>
+      <c r="C230" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E230" s="6">
+        <v>45137</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H230" s="2"/>
     </row>
     <row r="231" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="2"/>
+      <c r="A231" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="2"/>
+      <c r="C231" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E231" s="6">
+        <v>45138</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H231" s="2"/>
     </row>
     <row r="232" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="2"/>
+      <c r="A232" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="2"/>
+      <c r="C232" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E232" s="6">
+        <v>45138</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H232" s="2"/>
     </row>
     <row r="233" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8574,7 +9190,17 @@
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
     </row>
-    <row r="502" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="502" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A502" s="2"/>
+      <c r="B502" s="2"/>
+      <c r="C502" s="2"/>
+      <c r="D502" s="2"/>
+      <c r="E502" s="5"/>
+      <c r="F502" s="5"/>
+      <c r="G502" s="2"/>
+      <c r="H502" s="2"/>
+    </row>
+    <row r="503" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B3929766-A447-4B90-8493-6CC15133B520}"/>
@@ -8789,13 +9415,52 @@
     <hyperlink ref="A186" r:id="rId210" xr:uid="{52355FFC-98C8-4D61-B5C7-CAC5E0ED1894}"/>
     <hyperlink ref="A187" r:id="rId211" xr:uid="{28E345BE-F623-42BA-A352-0C4C666E68D5}"/>
     <hyperlink ref="A188" r:id="rId212" xr:uid="{DDAD6B07-311F-489A-8767-3BFDED10AC72}"/>
-    <hyperlink ref="A189" r:id="rId213" xr:uid="{E4E322B5-80ED-4E02-9410-F0B9E31BC2F3}"/>
-    <hyperlink ref="A190" r:id="rId214" xr:uid="{5634EDC5-706A-4926-BD1C-B7F0E795286F}"/>
-    <hyperlink ref="A191" r:id="rId215" xr:uid="{65A77112-02D9-4049-88CA-A3202C6E2C03}"/>
-    <hyperlink ref="A192" r:id="rId216" xr:uid="{4E7AFF6C-B45F-43F5-A817-2B51E6FA31A8}"/>
-    <hyperlink ref="A193" r:id="rId217" xr:uid="{1FFB557E-4D82-424E-AE9D-528376959C2B}"/>
+    <hyperlink ref="A190" r:id="rId213" xr:uid="{5634EDC5-706A-4926-BD1C-B7F0E795286F}"/>
+    <hyperlink ref="A191" r:id="rId214" xr:uid="{65A77112-02D9-4049-88CA-A3202C6E2C03}"/>
+    <hyperlink ref="A192" r:id="rId215" xr:uid="{4E7AFF6C-B45F-43F5-A817-2B51E6FA31A8}"/>
+    <hyperlink ref="A193" r:id="rId216" xr:uid="{1FFB557E-4D82-424E-AE9D-528376959C2B}"/>
+    <hyperlink ref="A194" r:id="rId217" xr:uid="{6213D03E-BD35-4497-BE8C-6E9511F8E5D9}"/>
+    <hyperlink ref="A195" r:id="rId218" xr:uid="{74EE3A7B-7CFF-436F-932A-36A335AE3952}"/>
+    <hyperlink ref="A196" r:id="rId219" xr:uid="{3178A873-7AD6-476F-B0A2-1C0CB450D34B}"/>
+    <hyperlink ref="A197" r:id="rId220" xr:uid="{1FAF2BDF-CB96-4988-BA48-3EDE810520E7}"/>
+    <hyperlink ref="A198" r:id="rId221" xr:uid="{4F8D573F-3264-4C08-920D-EA9AB9B304F3}"/>
+    <hyperlink ref="A199" r:id="rId222" xr:uid="{701CE6E9-2B78-4510-BE6D-CBAC91C085E8}"/>
+    <hyperlink ref="A200" r:id="rId223" xr:uid="{1C030BE9-EB33-4C92-B2E1-397461A643F3}"/>
+    <hyperlink ref="A201" r:id="rId224" xr:uid="{BFB808B9-06C4-4888-96C5-08172D348B84}"/>
+    <hyperlink ref="A202" r:id="rId225" xr:uid="{8AAC6EBB-B5C1-4B32-910D-B4A749520091}"/>
+    <hyperlink ref="A203" r:id="rId226" xr:uid="{B9379E29-A56F-49A9-9577-1A36EC6EFA07}"/>
+    <hyperlink ref="A204" r:id="rId227" xr:uid="{20BB6862-C682-40B3-A8AE-487221DBB8BF}"/>
+    <hyperlink ref="A189" r:id="rId228" xr:uid="{FE3530D3-1AB2-4105-B8EA-E9CF2521421B}"/>
+    <hyperlink ref="A205" r:id="rId229" xr:uid="{506271D9-3752-4996-9A87-C94CC350A7BF}"/>
+    <hyperlink ref="A206" r:id="rId230" xr:uid="{730A50FE-A492-4B53-AF46-89914DCF3FD1}"/>
+    <hyperlink ref="A207" r:id="rId231" xr:uid="{D5C2FEA3-2CF0-45D6-BA6B-8B1208EA0EDA}"/>
+    <hyperlink ref="A208" r:id="rId232" xr:uid="{807D29E6-49D7-4EEA-BDC1-F827BB2512F3}"/>
+    <hyperlink ref="A209" r:id="rId233" xr:uid="{8DE7A3F8-6507-461F-9E8C-0AE2208186C9}"/>
+    <hyperlink ref="A210" r:id="rId234" xr:uid="{212421D6-6D72-4992-AC93-7DFD07E2E3D9}"/>
+    <hyperlink ref="A211" r:id="rId235" xr:uid="{49D63392-6B99-451E-9AA1-27A39C960D0E}"/>
+    <hyperlink ref="A212" r:id="rId236" xr:uid="{1BB75AD8-C9EA-4D5C-8843-A27578163218}"/>
+    <hyperlink ref="A213" r:id="rId237" xr:uid="{C45C256F-70C5-427E-863E-E210BD63A630}"/>
+    <hyperlink ref="A214" r:id="rId238" xr:uid="{C67C7E21-3E5C-4559-8656-33F93334F457}"/>
+    <hyperlink ref="A215" r:id="rId239" xr:uid="{12B5E112-8A34-4F24-A287-16EE5C26ADED}"/>
+    <hyperlink ref="A216" r:id="rId240" xr:uid="{4B692350-BBA7-49D9-BB8F-C543EA51F719}"/>
+    <hyperlink ref="A217" r:id="rId241" xr:uid="{2DC9A5D2-DE7C-4D80-B724-824625646540}"/>
+    <hyperlink ref="A219" r:id="rId242" xr:uid="{8A6E54D5-5185-42CD-BA6A-C519D1F7AD72}"/>
+    <hyperlink ref="A218" r:id="rId243" xr:uid="{52E2F74C-20A3-4BB0-AD2A-C8E2943FE4FF}"/>
+    <hyperlink ref="A220" r:id="rId244" xr:uid="{03ED890B-D129-40D4-94A7-BB207EB2B838}"/>
+    <hyperlink ref="A221" r:id="rId245" xr:uid="{1A866FD8-14A6-4E2C-A5ED-3548E3A7DE04}"/>
+    <hyperlink ref="A222" r:id="rId246" xr:uid="{C62AC620-E474-4F00-9EA6-170506AF4A41}"/>
+    <hyperlink ref="A223" r:id="rId247" xr:uid="{793CE9EC-0036-4FC0-9A2B-B9A769CE1622}"/>
+    <hyperlink ref="A224" r:id="rId248" xr:uid="{EEBD42C8-FE92-48F1-B91F-9983F7F8655B}"/>
+    <hyperlink ref="A225" r:id="rId249" xr:uid="{FC737EB8-9372-4907-BC5F-BF8B4AF862B1}"/>
+    <hyperlink ref="A226" r:id="rId250" xr:uid="{43D4E2D6-1263-46FB-B473-77E9E5C44A3D}"/>
+    <hyperlink ref="A227" r:id="rId251" xr:uid="{46D6E12D-EE13-47C7-992F-30F3F52A8294}"/>
+    <hyperlink ref="A228" r:id="rId252" xr:uid="{C2B0EAC4-C129-48CE-890B-C0FA2375A0DF}"/>
+    <hyperlink ref="A229" r:id="rId253" xr:uid="{9D96B3D2-F301-4AD6-8463-006852447323}"/>
+    <hyperlink ref="A230" r:id="rId254" xr:uid="{1D6689BF-553A-4D1F-B25E-77A515AA0D83}"/>
+    <hyperlink ref="A231" r:id="rId255" xr:uid="{3DD8D54A-CF72-4E2D-AA4D-C1E8BE1476A9}"/>
+    <hyperlink ref="A232" r:id="rId256" xr:uid="{36167A9C-B3C6-4F28-A650-535EC9A6E694}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId218"/>
+  <pageSetup orientation="portrait" r:id="rId257"/>
 </worksheet>
 </file>
--- a/TrackMe.xlsx
+++ b/TrackMe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91180E96-EDAC-4B1D-8FAE-D3BD679DF496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0310B7BE-88A0-4A95-A39F-F2BAE62FFB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="345">
   <si>
     <t>Solution</t>
   </si>
@@ -931,6 +931,135 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/top-view-of-binary-tree/1?utm_source=gfg&amp;utm_medium=article&amp;utm_campaign=bottom_sticky_on_article</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>https://www.interviewbit.com/problems/path-to-given-node/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-width-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/burning-tree/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-complete-tree-nodes/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimize-the-maximum-difference-of-pairs/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change-ii/</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-absolute-difference-between-elements-with-constraint/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Table </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/implementing-ceil-in-bst/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/floor-in-bst/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-into-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-bst/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/inorder-successor-in-bst/1?utm_source=gfg&amp;utm_medium=article&amp;utm_campaign=bottom_sticky_on_article</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search-tree-iterator/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-iv-input-is-a-bst/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recover-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
   </si>
 </sst>
 </file>
@@ -1330,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="K237" sqref="K237"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="G275" sqref="G275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6322,7 +6451,9 @@
       <c r="G224" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H224" s="2"/>
+      <c r="H224" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="225" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="8" t="s">
@@ -6366,7 +6497,9 @@
       <c r="G226" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H226" s="2"/>
+      <c r="H226" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="227" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="8" t="s">
@@ -6454,7 +6587,9 @@
       <c r="G230" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H230" s="2"/>
+      <c r="H230" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="231" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="8" t="s">
@@ -6501,433 +6636,976 @@
       <c r="H232" s="2"/>
     </row>
     <row r="233" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="2"/>
+      <c r="A233" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
+      <c r="C233" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E233" s="6">
+        <v>45138</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="234" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="2"/>
+      <c r="A234" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="2"/>
+      <c r="C234" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E234" s="6">
+        <v>45139</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H234" s="2"/>
     </row>
     <row r="235" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="2"/>
+      <c r="A235" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="2"/>
+      <c r="C235" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E235" s="6">
+        <v>45139</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H235" s="2"/>
     </row>
     <row r="236" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="2"/>
+      <c r="A236" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="2"/>
+      <c r="C236" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E236" s="6">
+        <v>45139</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="2"/>
+      <c r="A237" s="8" t="s">
+        <v>306</v>
+      </c>
       <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="2"/>
+      <c r="C237" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E237" s="6">
+        <v>45139</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H237" s="2"/>
     </row>
     <row r="238" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="2"/>
+      <c r="A238" s="8" t="s">
+        <v>307</v>
+      </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
+      <c r="C238" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E238" s="6">
+        <v>45140</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="239" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="2"/>
+      <c r="A239" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
+      <c r="C239" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E239" s="6">
+        <v>45141</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="240" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="2"/>
+      <c r="A240" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-    </row>
-    <row r="241" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="2"/>
+      <c r="C240" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E240" s="6">
+        <v>45142</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="2"/>
+      <c r="C241" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E241" s="6">
+        <v>45142</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="2"/>
+    <row r="242" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="2"/>
+      <c r="C242" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E242" s="6">
+        <v>45143</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="2"/>
+    <row r="243" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-    </row>
-    <row r="244" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="2"/>
+      <c r="C243" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E243" s="6">
+        <v>45144</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="2"/>
+      <c r="C244" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E244" s="6">
+        <v>45144</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="2"/>
+    <row r="245" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="8" t="s">
+        <v>314</v>
+      </c>
       <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-    </row>
-    <row r="246" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="2"/>
+      <c r="C245" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E245" s="6">
+        <v>45145</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-    </row>
-    <row r="247" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="2"/>
+      <c r="C246" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E246" s="6">
+        <v>45146</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-    </row>
-    <row r="248" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="2"/>
+      <c r="C247" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E247" s="6">
+        <v>45147</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="2"/>
+      <c r="C248" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E248" s="6">
+        <v>45147</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="2"/>
+    <row r="249" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-    </row>
-    <row r="250" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="2"/>
+      <c r="C249" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E249" s="6">
+        <v>45147</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-    </row>
-    <row r="251" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="2"/>
+      <c r="C250" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E250" s="6">
+        <v>45148</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-    </row>
-    <row r="252" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="2"/>
+      <c r="C251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E251" s="6">
+        <v>45148</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I251" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="2"/>
+      <c r="C252" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E252" s="6">
+        <v>45148</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="2"/>
+    <row r="253" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="8" t="s">
+        <v>322</v>
+      </c>
       <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="2"/>
+      <c r="C253" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E253" s="6">
+        <v>45148</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="2"/>
+    <row r="254" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="2"/>
+      <c r="C254" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E254" s="6">
+        <v>45149</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="2"/>
+    <row r="255" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="8" t="s">
+        <v>325</v>
+      </c>
       <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-    </row>
-    <row r="256" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="2"/>
+      <c r="C255" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E255" s="6">
+        <v>45150</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="2"/>
+      <c r="C256" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E256" s="6">
+        <v>45151</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H256" s="2"/>
     </row>
     <row r="257" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="2"/>
+      <c r="A257" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="2"/>
+      <c r="C257" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E257" s="6">
+        <v>45152</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H257" s="2"/>
     </row>
     <row r="258" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="2"/>
+      <c r="A258" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="5"/>
-      <c r="F258" s="5"/>
-      <c r="G258" s="2"/>
+      <c r="C258" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E258" s="6">
+        <v>45152</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H258" s="2"/>
     </row>
     <row r="259" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="2"/>
+      <c r="A259" s="8" t="s">
+        <v>328</v>
+      </c>
       <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="2"/>
+      <c r="C259" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E259" s="6">
+        <v>45157</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="2"/>
+      <c r="A260" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="5"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="2"/>
+      <c r="C260" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E260" s="6">
+        <v>45158</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H260" s="2"/>
     </row>
     <row r="261" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="2"/>
+      <c r="A261" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="5"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="2"/>
+      <c r="C261" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E261" s="6">
+        <v>45159</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H261" s="2"/>
     </row>
     <row r="262" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="2"/>
+      <c r="A262" s="3" t="s">
+        <v>331</v>
+      </c>
       <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
-      <c r="G262" s="2"/>
+      <c r="C262" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E262" s="6">
+        <v>45160</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H262" s="2"/>
     </row>
     <row r="263" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="2"/>
+      <c r="A263" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="2"/>
+      <c r="C263" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E263" s="6">
+        <v>45160</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H263" s="2"/>
     </row>
     <row r="264" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="2"/>
+      <c r="A264" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
-      <c r="G264" s="2"/>
+      <c r="C264" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E264" s="6">
+        <v>45161</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H264" s="2"/>
     </row>
     <row r="265" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="2"/>
+      <c r="A265" s="3" t="s">
+        <v>334</v>
+      </c>
       <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="2"/>
+      <c r="C265" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E265" s="6">
+        <v>45162</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H265" s="2"/>
     </row>
     <row r="266" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="2"/>
+      <c r="A266" s="3" t="s">
+        <v>335</v>
+      </c>
       <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="2"/>
+      <c r="C266" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E266" s="6">
+        <v>45162</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H266" s="2"/>
     </row>
     <row r="267" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="2"/>
+      <c r="A267" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="2"/>
+      <c r="C267" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E267" s="6">
+        <v>45163</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H267" s="2"/>
     </row>
     <row r="268" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="2"/>
+      <c r="A268" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="5"/>
-      <c r="F268" s="5"/>
-      <c r="G268" s="2"/>
+      <c r="C268" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E268" s="6">
+        <v>45163</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H268" s="2"/>
     </row>
     <row r="269" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="2"/>
+      <c r="A269" s="3" t="s">
+        <v>338</v>
+      </c>
       <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="5"/>
-      <c r="F269" s="5"/>
-      <c r="G269" s="2"/>
+      <c r="C269" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E269" s="6">
+        <v>45164</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H269" s="2"/>
     </row>
     <row r="270" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="2"/>
+      <c r="A270" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="5"/>
-      <c r="F270" s="5"/>
-      <c r="G270" s="2"/>
+      <c r="C270" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E270" s="6">
+        <v>45165</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H270" s="2"/>
     </row>
     <row r="271" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="2"/>
+      <c r="A271" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="2"/>
+      <c r="C271" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E271" s="6">
+        <v>45166</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H271" s="2"/>
     </row>
     <row r="272" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="2"/>
+      <c r="A272" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
-      <c r="G272" s="2"/>
+      <c r="C272" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E272" s="6">
+        <v>45167</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H272" s="2"/>
     </row>
     <row r="273" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="2"/>
+      <c r="A273" s="3" t="s">
+        <v>342</v>
+      </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
-      <c r="G273" s="2"/>
+      <c r="C273" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E273" s="6">
+        <v>45172</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H273" s="2"/>
     </row>
     <row r="274" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="2"/>
+      <c r="A274" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="5"/>
-      <c r="F274" s="5"/>
-      <c r="G274" s="2"/>
+      <c r="C274" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E274" s="6">
+        <v>45173</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H274" s="2"/>
     </row>
     <row r="275" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="2"/>
+      <c r="A275" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="5"/>
-      <c r="F275" s="5"/>
-      <c r="G275" s="2"/>
+      <c r="C275" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E275" s="6">
+        <v>45175</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H275" s="2"/>
     </row>
     <row r="276" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -9459,8 +10137,51 @@
     <hyperlink ref="A230" r:id="rId254" xr:uid="{1D6689BF-553A-4D1F-B25E-77A515AA0D83}"/>
     <hyperlink ref="A231" r:id="rId255" xr:uid="{3DD8D54A-CF72-4E2D-AA4D-C1E8BE1476A9}"/>
     <hyperlink ref="A232" r:id="rId256" xr:uid="{36167A9C-B3C6-4F28-A650-535EC9A6E694}"/>
+    <hyperlink ref="A233" r:id="rId257" xr:uid="{365C6E3A-3E80-4E5D-B8D2-987A599684D2}"/>
+    <hyperlink ref="A234" r:id="rId258" xr:uid="{3F866C6C-E262-4DA6-92CB-4F00B23EC81F}"/>
+    <hyperlink ref="A235" r:id="rId259" xr:uid="{F3D7C7A8-038D-460F-AD0D-3A4B9022DF65}"/>
+    <hyperlink ref="A236" r:id="rId260" xr:uid="{C1F1E383-3794-4753-876A-7B9550D82C4A}"/>
+    <hyperlink ref="A237" r:id="rId261" xr:uid="{2FA7231A-6D65-4C84-87B4-E84E4973F550}"/>
+    <hyperlink ref="A238" r:id="rId262" xr:uid="{E4DF5813-49D5-474B-A086-1ECFE75A6D49}"/>
+    <hyperlink ref="A239" r:id="rId263" xr:uid="{7FF49204-1478-40C4-BFBC-F5DFFD6B2E28}"/>
+    <hyperlink ref="A240" r:id="rId264" xr:uid="{9AB2D4E8-1F39-4951-BA99-3458C63E4560}"/>
+    <hyperlink ref="A241" r:id="rId265" xr:uid="{37541E66-4E26-4DED-B02F-DCD9D8C6D201}"/>
+    <hyperlink ref="A242" r:id="rId266" xr:uid="{108133DD-8B42-48D0-9EFB-D721D213A389}"/>
+    <hyperlink ref="A243" r:id="rId267" xr:uid="{AE826AE9-6360-497A-9C75-623E3B384161}"/>
+    <hyperlink ref="A244" r:id="rId268" xr:uid="{88A81E12-31E0-4648-9844-66DFA4610D12}"/>
+    <hyperlink ref="A245" r:id="rId269" xr:uid="{DB9C9FE4-F9CE-4DDF-B376-D2848A31A05C}"/>
+    <hyperlink ref="A246" r:id="rId270" xr:uid="{7E509844-22E3-46FB-B052-DA557C65877F}"/>
+    <hyperlink ref="A247" r:id="rId271" xr:uid="{292F0896-0C7F-4706-8FD0-E3FFFAA41820}"/>
+    <hyperlink ref="A248" r:id="rId272" xr:uid="{745F025F-6A16-4436-8DC0-A9AFC8B37F80}"/>
+    <hyperlink ref="A249" r:id="rId273" xr:uid="{97D914DE-2BA5-40DF-8F9D-8053E5272017}"/>
+    <hyperlink ref="A250" r:id="rId274" xr:uid="{D3A04545-808A-4C5A-98CB-E413B6EB64F3}"/>
+    <hyperlink ref="A251" r:id="rId275" xr:uid="{8068CCAB-0BED-4014-B392-DC46E19649B2}"/>
+    <hyperlink ref="A252" r:id="rId276" xr:uid="{4470CAA1-D570-4B1E-8239-30D38726F7A0}"/>
+    <hyperlink ref="A253" r:id="rId277" xr:uid="{7B090630-298A-4321-82A2-A7ECA93912C4}"/>
+    <hyperlink ref="A254" r:id="rId278" xr:uid="{9BD77DCD-3B67-4F22-82ED-DA867847CC26}"/>
+    <hyperlink ref="A255" r:id="rId279" xr:uid="{E4FFFF8D-E133-4A64-9A28-A12E8B730775}"/>
+    <hyperlink ref="A256" r:id="rId280" xr:uid="{B7008501-6E3F-4031-80FA-208996D8436C}"/>
+    <hyperlink ref="A257" r:id="rId281" xr:uid="{9B3ADAF6-8978-4562-BDD5-893CB095E171}"/>
+    <hyperlink ref="A258" r:id="rId282" xr:uid="{4E0CA25D-2CEF-4239-9CE2-3C5897483476}"/>
+    <hyperlink ref="A259" r:id="rId283" xr:uid="{0DAFEAD7-8244-4072-A8A1-534516AB1D9E}"/>
+    <hyperlink ref="A260" r:id="rId284" xr:uid="{84463156-3D38-4FF3-AE35-10F522002420}"/>
+    <hyperlink ref="A261" r:id="rId285" xr:uid="{312348C0-A7C5-4A9D-810E-86EF78D3414C}"/>
+    <hyperlink ref="A262" r:id="rId286" xr:uid="{6F17CFCA-745D-40EA-BD21-B57C64AC8448}"/>
+    <hyperlink ref="A263" r:id="rId287" xr:uid="{B3EF3284-8627-4B6C-8B1A-F708DF542772}"/>
+    <hyperlink ref="A264" r:id="rId288" xr:uid="{81B80E88-8CF7-49EE-8607-D30584D1C603}"/>
+    <hyperlink ref="A265" r:id="rId289" xr:uid="{AFA54BF8-28A2-48DD-A543-C20A45D13741}"/>
+    <hyperlink ref="A266" r:id="rId290" xr:uid="{5C31D5A5-5185-43A6-B967-468DD5E207C3}"/>
+    <hyperlink ref="A267" r:id="rId291" xr:uid="{5AE99626-5F26-4D97-8DA8-AE56529AF667}"/>
+    <hyperlink ref="A268" r:id="rId292" xr:uid="{AC097A71-5A7B-47D1-AD34-8EB0CC923311}"/>
+    <hyperlink ref="A269" r:id="rId293" xr:uid="{E39775B7-8418-40B2-B30A-BD9365F644D8}"/>
+    <hyperlink ref="A270" r:id="rId294" xr:uid="{F55BF15F-F320-4365-BBD9-D39C04EDD636}"/>
+    <hyperlink ref="A271" r:id="rId295" xr:uid="{D11CA773-2267-41B8-95DD-AB24C9BB254B}"/>
+    <hyperlink ref="A272" r:id="rId296" xr:uid="{598D9B19-144D-4566-859F-8A60982F994F}"/>
+    <hyperlink ref="A273" r:id="rId297" xr:uid="{AF17E3F6-D5C7-4733-816F-79F96C48C383}"/>
+    <hyperlink ref="A274" r:id="rId298" xr:uid="{3B52F4A8-8D79-441D-9EEA-0D3A50E1857F}"/>
+    <hyperlink ref="A275" r:id="rId299" xr:uid="{3B0F54EC-41E9-4940-B54D-F5D5D9B28A75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId257"/>
+  <pageSetup orientation="portrait" r:id="rId300"/>
 </worksheet>
 </file>